--- a/Code/Results/Cases/Case_3_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01608551972662</v>
+        <v>14.1346542613174</v>
       </c>
       <c r="C2">
-        <v>16.29341150442877</v>
+        <v>9.817118980061514</v>
       </c>
       <c r="D2">
-        <v>6.330668169297042</v>
+        <v>9.849515524223582</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.02358967620647</v>
+        <v>33.90844441242037</v>
       </c>
       <c r="G2">
-        <v>31.87864831293816</v>
+        <v>35.81312204853899</v>
       </c>
       <c r="H2">
-        <v>10.36033750888706</v>
+        <v>15.8530066540732</v>
       </c>
       <c r="I2">
-        <v>14.23341971230435</v>
+        <v>22.14315479450082</v>
       </c>
       <c r="J2">
-        <v>6.428454126868267</v>
+        <v>11.00411746557383</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.13355755389964</v>
+        <v>17.95394511809635</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60885806228768</v>
+        <v>13.57018978290471</v>
       </c>
       <c r="C3">
-        <v>15.19431639210554</v>
+        <v>9.308605990471516</v>
       </c>
       <c r="D3">
-        <v>6.162050718870605</v>
+        <v>9.837365958358838</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.34825086007693</v>
+        <v>33.93766124023617</v>
       </c>
       <c r="G3">
-        <v>30.71516584799537</v>
+        <v>35.76469206226051</v>
       </c>
       <c r="H3">
-        <v>10.30600155302942</v>
+        <v>15.90644387822675</v>
       </c>
       <c r="I3">
-        <v>14.36965434812527</v>
+        <v>22.26834258116095</v>
       </c>
       <c r="J3">
-        <v>6.452174614865689</v>
+        <v>11.03497496351174</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.25334571919277</v>
+        <v>17.77782849845438</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69566177565899</v>
+        <v>13.21309751312821</v>
       </c>
       <c r="C4">
-        <v>14.48170550148018</v>
+        <v>8.98278789639039</v>
       </c>
       <c r="D4">
-        <v>6.058421401304799</v>
+        <v>9.83098024834908</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.95880862995167</v>
+        <v>33.96667066621266</v>
       </c>
       <c r="G4">
-        <v>30.03176595471887</v>
+        <v>35.75080064459137</v>
       </c>
       <c r="H4">
-        <v>10.28432959321039</v>
+        <v>15.94315189030491</v>
       </c>
       <c r="I4">
-        <v>14.47397209109379</v>
+        <v>22.35145930475746</v>
       </c>
       <c r="J4">
-        <v>6.470527055183374</v>
+        <v>11.05547349071948</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.69362205476711</v>
+        <v>17.67187964615443</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31107802730105</v>
+        <v>13.0651526369273</v>
       </c>
       <c r="C5">
-        <v>14.18173653115435</v>
+        <v>8.846746600804803</v>
       </c>
       <c r="D5">
-        <v>6.016212971376849</v>
+        <v>9.828649922582311</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.80645822272036</v>
+        <v>33.98126559098891</v>
       </c>
       <c r="G5">
-        <v>29.76129272021063</v>
+        <v>35.74911495849526</v>
       </c>
       <c r="H5">
-        <v>10.27830782600592</v>
+        <v>15.95908713361269</v>
       </c>
       <c r="I5">
-        <v>14.52133842215772</v>
+        <v>22.38689553471874</v>
       </c>
       <c r="J5">
-        <v>6.478923939493758</v>
+        <v>11.06421704600824</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.46089241382346</v>
+        <v>17.62929584763052</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24646383908865</v>
+        <v>13.04044672080372</v>
       </c>
       <c r="C6">
-        <v>14.13134645706342</v>
+        <v>8.823964570120742</v>
       </c>
       <c r="D6">
-        <v>6.009206977551518</v>
+        <v>9.828279446140874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.78154393221424</v>
+        <v>33.98385623255423</v>
       </c>
       <c r="G6">
-        <v>29.71687137543617</v>
+        <v>35.7490747692278</v>
       </c>
       <c r="H6">
-        <v>10.27747377122605</v>
+        <v>15.96179203565898</v>
       </c>
       <c r="I6">
-        <v>14.52948721708386</v>
+        <v>22.3928740610288</v>
       </c>
       <c r="J6">
-        <v>6.48037271117092</v>
+        <v>11.06569247626391</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.42197474894661</v>
+        <v>17.62226173006941</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69052566275954</v>
+        <v>13.21111179975157</v>
       </c>
       <c r="C7">
-        <v>14.47769888114317</v>
+        <v>8.980966210207942</v>
       </c>
       <c r="D7">
-        <v>6.0578520145306</v>
+        <v>9.830947717547762</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.95672827038112</v>
+        <v>33.96685628440991</v>
       </c>
       <c r="G7">
-        <v>30.02808550691207</v>
+        <v>35.7507618317189</v>
       </c>
       <c r="H7">
-        <v>10.28423717851576</v>
+        <v>15.94336284990934</v>
       </c>
       <c r="I7">
-        <v>14.47459166634546</v>
+        <v>22.3519308799571</v>
       </c>
       <c r="J7">
-        <v>6.470636625406591</v>
+        <v>11.05558982930502</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.69050184945048</v>
+        <v>17.67130289877173</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54101948757941</v>
+        <v>13.9423297233175</v>
       </c>
       <c r="C8">
-        <v>15.92223188883949</v>
+        <v>9.644685770468801</v>
       </c>
       <c r="D8">
-        <v>6.272575717583837</v>
+        <v>9.845104516979875</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.78551012430022</v>
+        <v>33.91621509198172</v>
       </c>
       <c r="G8">
-        <v>31.47118845533058</v>
+        <v>35.79313098206138</v>
       </c>
       <c r="H8">
-        <v>10.33909874555423</v>
+        <v>15.87062079021742</v>
       </c>
       <c r="I8">
-        <v>14.27589272702351</v>
+        <v>22.18501832988871</v>
       </c>
       <c r="J8">
-        <v>6.435825576726318</v>
+        <v>11.01443503581181</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.83417026894188</v>
+        <v>17.89279110547861</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78419194095799</v>
+        <v>15.2846214010293</v>
       </c>
       <c r="C9">
-        <v>18.45917586717942</v>
+        <v>10.83308611737706</v>
       </c>
       <c r="D9">
-        <v>6.691030572743702</v>
+        <v>9.881306747874541</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.60973117050843</v>
+        <v>33.9051232572338</v>
       </c>
       <c r="G9">
-        <v>34.53696095765111</v>
+        <v>36.00208180551883</v>
       </c>
       <c r="H9">
-        <v>10.54510099308213</v>
+        <v>15.75905375775571</v>
       </c>
       <c r="I9">
-        <v>14.06639773372824</v>
+        <v>21.90758780399759</v>
       </c>
       <c r="J9">
-        <v>6.399244367964934</v>
+        <v>10.94604424025024</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.05061946650239</v>
+        <v>18.34263306741808</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.93840642316988</v>
+        <v>16.20550423568261</v>
       </c>
       <c r="C10">
-        <v>20.14851860097887</v>
+        <v>11.63153617743696</v>
       </c>
       <c r="D10">
-        <v>6.994696277500117</v>
+        <v>9.912934839443523</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.06956633368515</v>
+        <v>33.95114543164254</v>
       </c>
       <c r="G10">
-        <v>36.92136805544653</v>
+        <v>36.23214369188554</v>
       </c>
       <c r="H10">
-        <v>10.76396043161645</v>
+        <v>15.69624003525115</v>
       </c>
       <c r="I10">
-        <v>14.04555527636462</v>
+        <v>21.73456576966748</v>
       </c>
       <c r="J10">
-        <v>6.394060156000189</v>
+        <v>10.90330435764936</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.70459136901108</v>
+        <v>18.68005868544091</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.87035478073589</v>
+        <v>16.6086750777298</v>
       </c>
       <c r="C11">
-        <v>20.88052680014179</v>
+        <v>11.97769883935496</v>
       </c>
       <c r="D11">
-        <v>7.131653628903696</v>
+        <v>9.928388647657741</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.75939863281221</v>
+        <v>33.98388615644146</v>
       </c>
       <c r="G11">
-        <v>38.03304649189072</v>
+        <v>36.35326631209539</v>
       </c>
       <c r="H11">
-        <v>10.87972902281409</v>
+        <v>15.67186555407122</v>
       </c>
       <c r="I11">
-        <v>14.0702249558028</v>
+        <v>21.66262926390459</v>
       </c>
       <c r="J11">
-        <v>6.396970397841582</v>
+        <v>10.88549102353593</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.42134439556877</v>
+        <v>18.83452314942635</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.21649349347854</v>
+        <v>16.7589734285528</v>
       </c>
       <c r="C12">
-        <v>21.1525965602092</v>
+        <v>12.10627484857927</v>
       </c>
       <c r="D12">
-        <v>7.183321644137185</v>
+        <v>9.93439138915863</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.02432213665815</v>
+        <v>33.99798155345935</v>
       </c>
       <c r="G12">
-        <v>38.4578234253849</v>
+        <v>36.401477841032</v>
       </c>
       <c r="H12">
-        <v>10.92602146304449</v>
+        <v>15.66324271405983</v>
       </c>
       <c r="I12">
-        <v>14.08492169764856</v>
+        <v>21.63636994701476</v>
       </c>
       <c r="J12">
-        <v>6.398879710989182</v>
+        <v>10.8789798999627</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.68775194917353</v>
+        <v>18.89310847369052</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.14224517190806</v>
+        <v>16.72671114229334</v>
       </c>
       <c r="C13">
-        <v>21.09422742532777</v>
+        <v>12.07869603025356</v>
       </c>
       <c r="D13">
-        <v>7.172203012772303</v>
+        <v>9.933091930277882</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.96710135564008</v>
+        <v>33.99487040327732</v>
       </c>
       <c r="G13">
-        <v>38.36617115510852</v>
+        <v>36.390990752165</v>
       </c>
       <c r="H13">
-        <v>10.91594050257475</v>
+        <v>15.66507273827037</v>
       </c>
       <c r="I13">
-        <v>14.08151122255945</v>
+        <v>21.6419815866115</v>
       </c>
       <c r="J13">
-        <v>6.398431778918748</v>
+        <v>10.88037176011217</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.63059727208606</v>
+        <v>18.88048767133622</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.89896669364216</v>
+        <v>16.62108835904571</v>
       </c>
       <c r="C14">
-        <v>20.90301214988707</v>
+        <v>11.98832741417196</v>
       </c>
       <c r="D14">
-        <v>7.135908414064051</v>
+        <v>9.92887949131581</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.78111983450514</v>
+        <v>33.98501178875232</v>
       </c>
       <c r="G14">
-        <v>38.06791699254141</v>
+        <v>36.35718585620295</v>
       </c>
       <c r="H14">
-        <v>10.88348766216627</v>
+        <v>15.6711439592455</v>
       </c>
       <c r="I14">
-        <v>14.07132418898356</v>
+        <v>21.66044917973765</v>
       </c>
       <c r="J14">
-        <v>6.397111003876489</v>
+        <v>10.88495065110855</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.44336165013672</v>
+        <v>18.83934139886363</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.74907412264814</v>
+        <v>16.55607923949176</v>
       </c>
       <c r="C15">
-        <v>20.78522346614634</v>
+        <v>11.93264591369047</v>
       </c>
       <c r="D15">
-        <v>7.113650915077395</v>
+        <v>9.926318800628801</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.66768287620133</v>
+        <v>33.97919407963606</v>
       </c>
       <c r="G15">
-        <v>37.88572267474085</v>
+        <v>36.33678400074253</v>
       </c>
       <c r="H15">
-        <v>10.86393248138924</v>
+        <v>15.6749419347284</v>
       </c>
       <c r="I15">
-        <v>14.06579494601771</v>
+        <v>21.67188915946642</v>
       </c>
       <c r="J15">
-        <v>6.396408647551412</v>
+        <v>10.88778588319617</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.32802536475556</v>
+        <v>18.81414886424913</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.87654650638446</v>
+        <v>16.17882952267372</v>
       </c>
       <c r="C16">
-        <v>20.09995609181099</v>
+        <v>11.60856540694052</v>
       </c>
       <c r="D16">
-        <v>6.985719769289616</v>
+        <v>9.911946130571831</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.02500136094988</v>
+        <v>33.94924331542626</v>
       </c>
       <c r="G16">
-        <v>36.84925265769367</v>
+        <v>36.22455756489332</v>
       </c>
       <c r="H16">
-        <v>10.75673135367593</v>
+        <v>15.69791776309273</v>
       </c>
       <c r="I16">
-        <v>14.04466810863932</v>
+        <v>21.73940391428858</v>
       </c>
       <c r="J16">
-        <v>6.393980157056152</v>
+        <v>10.90450129547423</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.65704217647132</v>
+        <v>18.66997958790981</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.32907404123981</v>
+        <v>15.94328350360599</v>
       </c>
       <c r="C17">
-        <v>19.67030539425635</v>
+        <v>11.40534078898014</v>
       </c>
       <c r="D17">
-        <v>6.906916146140514</v>
+        <v>9.903400204151373</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.63732080731436</v>
+        <v>33.93389348531238</v>
       </c>
       <c r="G17">
-        <v>36.22025304933215</v>
+        <v>36.15991323984422</v>
       </c>
       <c r="H17">
-        <v>10.69520606458507</v>
+        <v>15.71309077137836</v>
       </c>
       <c r="I17">
-        <v>14.04076865769606</v>
+        <v>21.78256195038962</v>
       </c>
       <c r="J17">
-        <v>6.393874140757516</v>
+        <v>10.9151730319026</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.23636462737573</v>
+        <v>18.58175132061671</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.00965437666946</v>
+        <v>15.80632730432712</v>
       </c>
       <c r="C18">
-        <v>19.41974005562093</v>
+        <v>11.28684848471406</v>
       </c>
       <c r="D18">
-        <v>6.861480318209948</v>
+        <v>9.89858531459849</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.41675939684817</v>
+        <v>33.9261759720576</v>
       </c>
       <c r="G18">
-        <v>35.8610109647885</v>
+        <v>36.12428314628676</v>
       </c>
       <c r="H18">
-        <v>10.6613367598757</v>
+        <v>15.72221300006978</v>
       </c>
       <c r="I18">
-        <v>14.04171324822363</v>
+        <v>21.80802226918811</v>
       </c>
       <c r="J18">
-        <v>6.394305917388802</v>
+        <v>10.92146447850872</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.99103939713961</v>
+        <v>18.5310986019252</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.90072274101133</v>
+        <v>15.7597063324805</v>
       </c>
       <c r="C19">
-        <v>19.33430832369227</v>
+        <v>11.24645561077774</v>
       </c>
       <c r="D19">
-        <v>6.846078466728818</v>
+        <v>9.896972413461617</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.34249763101545</v>
+        <v>33.92375379683025</v>
       </c>
       <c r="G19">
-        <v>35.73981770365569</v>
+        <v>36.11248650369208</v>
       </c>
       <c r="H19">
-        <v>10.65012622095985</v>
+        <v>15.72536938772716</v>
       </c>
       <c r="I19">
-        <v>14.04256707009636</v>
+        <v>21.81675186166651</v>
       </c>
       <c r="J19">
-        <v>6.394535276944121</v>
+        <v>10.92362098807695</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.90739559655322</v>
+        <v>18.51396599349497</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.38782110534717</v>
+        <v>15.96851142306416</v>
       </c>
       <c r="C20">
-        <v>19.71639779800091</v>
+        <v>11.42714072665158</v>
       </c>
       <c r="D20">
-        <v>6.915316514822114</v>
+        <v>9.904299549391313</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.67833948578816</v>
+        <v>33.93541248070952</v>
       </c>
       <c r="G20">
-        <v>36.28694881574621</v>
+        <v>36.16663430005913</v>
       </c>
       <c r="H20">
-        <v>10.70159749343231</v>
+        <v>15.71143466114771</v>
       </c>
       <c r="I20">
-        <v>14.04085066987185</v>
+        <v>21.77790172568553</v>
       </c>
       <c r="J20">
-        <v>6.39383407818951</v>
+        <v>10.91402113575952</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.28149368606343</v>
+        <v>18.59113399329171</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.97060609113139</v>
+        <v>16.65217754947883</v>
       </c>
       <c r="C21">
-        <v>20.95931481963765</v>
+        <v>12.01493933000963</v>
       </c>
       <c r="D21">
-        <v>7.146574474538955</v>
+        <v>9.930112717341361</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.83564661279247</v>
+        <v>33.98786145512413</v>
       </c>
       <c r="G21">
-        <v>38.15541835050355</v>
+        <v>36.36705173959726</v>
       </c>
       <c r="H21">
-        <v>10.89295229265719</v>
+        <v>15.66934418828712</v>
       </c>
       <c r="I21">
-        <v>14.07416748027204</v>
+        <v>21.65499810160055</v>
       </c>
       <c r="J21">
-        <v>6.39747662738863</v>
+        <v>10.88359935737831</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.49849233728046</v>
+        <v>18.8514248989727</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.96565721299275</v>
+        <v>17.08511696910556</v>
       </c>
       <c r="C22">
-        <v>21.74181843489848</v>
+        <v>12.38446112241091</v>
       </c>
       <c r="D22">
-        <v>7.296572042208186</v>
+        <v>9.947860350796907</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.61359450094873</v>
+        <v>34.03203072633508</v>
       </c>
       <c r="G22">
-        <v>39.39878755032187</v>
+        <v>36.51169026106578</v>
       </c>
       <c r="H22">
-        <v>11.03237026954424</v>
+        <v>15.6453765576354</v>
       </c>
       <c r="I22">
-        <v>14.12736208876172</v>
+        <v>21.58039787611975</v>
       </c>
       <c r="J22">
-        <v>6.404587936699261</v>
+        <v>10.8650832793675</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.26472154997462</v>
+        <v>19.02206095210112</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.43813680949141</v>
+        <v>16.8553509920908</v>
       </c>
       <c r="C23">
-        <v>21.32686726738984</v>
+        <v>12.18859543082521</v>
       </c>
       <c r="D23">
-        <v>7.216626891472074</v>
+        <v>9.938308717386843</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.19640781377032</v>
+        <v>34.00755242780274</v>
       </c>
       <c r="G23">
-        <v>38.733150919372</v>
+        <v>36.43325356080074</v>
       </c>
       <c r="H23">
-        <v>10.95660637636346</v>
+        <v>15.65784348265322</v>
       </c>
       <c r="I23">
-        <v>14.09594867517015</v>
+        <v>21.61968708990182</v>
       </c>
       <c r="J23">
-        <v>6.400342410634756</v>
+        <v>10.87484060298684</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.85839756473355</v>
+        <v>18.93095675817493</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.36127611512999</v>
+        <v>15.95711066163492</v>
       </c>
       <c r="C24">
-        <v>19.69557049938015</v>
+        <v>11.41729012792304</v>
       </c>
       <c r="D24">
-        <v>6.911519112902442</v>
+        <v>9.903892649104415</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.65978771022939</v>
+        <v>33.93472229357</v>
       </c>
       <c r="G24">
-        <v>36.2567882456928</v>
+        <v>36.16359092617334</v>
       </c>
       <c r="H24">
-        <v>10.69870325809404</v>
+        <v>15.71218214569582</v>
       </c>
       <c r="I24">
-        <v>14.04080370074644</v>
+        <v>21.78000659466381</v>
       </c>
       <c r="J24">
-        <v>6.393850659462048</v>
+        <v>10.9145414216889</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.26110166202676</v>
+        <v>18.5868918626265</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.94746434924705</v>
+        <v>14.93236260428664</v>
       </c>
       <c r="C25">
-        <v>17.80396016872446</v>
+        <v>10.52436391283673</v>
       </c>
       <c r="D25">
-        <v>6.578348660467405</v>
+        <v>9.870620875216634</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.09510301014132</v>
+        <v>33.89863119153377</v>
       </c>
       <c r="G25">
-        <v>33.68366335386663</v>
+        <v>35.93207680214131</v>
       </c>
       <c r="H25">
-        <v>10.47804750829212</v>
+        <v>15.78588635569415</v>
       </c>
       <c r="I25">
-        <v>14.10144215511907</v>
+        <v>21.97725912591411</v>
       </c>
       <c r="J25">
-        <v>6.405511427630334</v>
+        <v>10.9632274972867</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.40920202961761</v>
+        <v>18.21953807310407</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.1346542613174</v>
+        <v>21.01608551972657</v>
       </c>
       <c r="C2">
-        <v>9.817118980061514</v>
+        <v>16.29341150442885</v>
       </c>
       <c r="D2">
-        <v>9.849515524223582</v>
+        <v>6.330668169297048</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.90844441242037</v>
+        <v>26.02358967620646</v>
       </c>
       <c r="G2">
-        <v>35.81312204853899</v>
+        <v>31.8786483129381</v>
       </c>
       <c r="H2">
-        <v>15.8530066540732</v>
+        <v>10.36033750888704</v>
       </c>
       <c r="I2">
-        <v>22.14315479450082</v>
+        <v>14.23341971230439</v>
       </c>
       <c r="J2">
-        <v>11.00411746557383</v>
+        <v>6.428454126868317</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.95394511809635</v>
+        <v>16.13355755389966</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.57018978290471</v>
+        <v>19.60885806228769</v>
       </c>
       <c r="C3">
-        <v>9.308605990471516</v>
+        <v>15.19431639210546</v>
       </c>
       <c r="D3">
-        <v>9.837365958358838</v>
+        <v>6.162050718870499</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.93766124023617</v>
+        <v>25.34825086007697</v>
       </c>
       <c r="G3">
-        <v>35.76469206226051</v>
+        <v>30.71516584799546</v>
       </c>
       <c r="H3">
-        <v>15.90644387822675</v>
+        <v>10.30600155302943</v>
       </c>
       <c r="I3">
-        <v>22.26834258116095</v>
+        <v>14.36965434812525</v>
       </c>
       <c r="J3">
-        <v>11.03497496351174</v>
+        <v>6.452174614865639</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.77782849845438</v>
+        <v>15.25334571919275</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.21309751312821</v>
+        <v>18.69566177565899</v>
       </c>
       <c r="C4">
-        <v>8.98278789639039</v>
+        <v>14.48170550148019</v>
       </c>
       <c r="D4">
-        <v>9.83098024834908</v>
+        <v>6.058421401304756</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.96667066621266</v>
+        <v>24.95880862995165</v>
       </c>
       <c r="G4">
-        <v>35.75080064459137</v>
+        <v>30.03176595471887</v>
       </c>
       <c r="H4">
-        <v>15.94315189030491</v>
+        <v>10.28432959321037</v>
       </c>
       <c r="I4">
-        <v>22.35145930475746</v>
+        <v>14.47397209109384</v>
       </c>
       <c r="J4">
-        <v>11.05547349071948</v>
+        <v>6.470527055183374</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.67187964615443</v>
+        <v>14.69362205476711</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.0651526369273</v>
+        <v>18.31107802730104</v>
       </c>
       <c r="C5">
-        <v>8.846746600804803</v>
+        <v>14.18173653115435</v>
       </c>
       <c r="D5">
-        <v>9.828649922582311</v>
+        <v>6.016212971376704</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.98126559098891</v>
+        <v>24.80645822272034</v>
       </c>
       <c r="G5">
-        <v>35.74911495849526</v>
+        <v>29.76129272021073</v>
       </c>
       <c r="H5">
-        <v>15.95908713361269</v>
+        <v>10.27830782600594</v>
       </c>
       <c r="I5">
-        <v>22.38689553471874</v>
+        <v>14.52133842215776</v>
       </c>
       <c r="J5">
-        <v>11.06421704600824</v>
+        <v>6.478923939493708</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.62929584763052</v>
+        <v>14.46089241382343</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.04044672080372</v>
+        <v>18.24646383908861</v>
       </c>
       <c r="C6">
-        <v>8.823964570120742</v>
+        <v>14.13134645706362</v>
       </c>
       <c r="D6">
-        <v>9.828279446140874</v>
+        <v>6.009206977551629</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.98385623255423</v>
+        <v>24.78154393221425</v>
       </c>
       <c r="G6">
-        <v>35.7490747692278</v>
+        <v>29.71687137543607</v>
       </c>
       <c r="H6">
-        <v>15.96179203565898</v>
+        <v>10.27747377122596</v>
       </c>
       <c r="I6">
-        <v>22.3928740610288</v>
+        <v>14.5294872170839</v>
       </c>
       <c r="J6">
-        <v>11.06569247626391</v>
+        <v>6.480372711170925</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.62226173006941</v>
+        <v>14.42197474894659</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.21111179975157</v>
+        <v>18.69052566275974</v>
       </c>
       <c r="C7">
-        <v>8.980966210207942</v>
+        <v>14.47769888114313</v>
       </c>
       <c r="D7">
-        <v>9.830947717547762</v>
+        <v>6.057852014530516</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.96685628440991</v>
+        <v>24.9567282703808</v>
       </c>
       <c r="G7">
-        <v>35.7507618317189</v>
+        <v>30.02808550691159</v>
       </c>
       <c r="H7">
-        <v>15.94336284990934</v>
+        <v>10.2842371785156</v>
       </c>
       <c r="I7">
-        <v>22.3519308799571</v>
+        <v>14.47459166634518</v>
       </c>
       <c r="J7">
-        <v>11.05558982930502</v>
+        <v>6.470636625406652</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.67130289877173</v>
+        <v>14.69050184945043</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.9423297233175</v>
+        <v>20.5410194875794</v>
       </c>
       <c r="C8">
-        <v>9.644685770468801</v>
+        <v>15.92223188883947</v>
       </c>
       <c r="D8">
-        <v>9.845104516979875</v>
+        <v>6.272575717583819</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.91621509198172</v>
+        <v>25.78551012430024</v>
       </c>
       <c r="G8">
-        <v>35.79313098206138</v>
+        <v>31.4711884553306</v>
       </c>
       <c r="H8">
-        <v>15.87062079021742</v>
+        <v>10.33909874555428</v>
       </c>
       <c r="I8">
-        <v>22.18501832988871</v>
+        <v>14.27589272702353</v>
       </c>
       <c r="J8">
-        <v>11.01443503581181</v>
+        <v>6.435825576726321</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.89279110547861</v>
+        <v>15.83417026894188</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.2846214010293</v>
+        <v>23.78419194095805</v>
       </c>
       <c r="C9">
-        <v>10.83308611737706</v>
+        <v>18.45917586717948</v>
       </c>
       <c r="D9">
-        <v>9.881306747874541</v>
+        <v>6.691030572743601</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.9051232572338</v>
+        <v>27.60973117050845</v>
       </c>
       <c r="G9">
-        <v>36.00208180551883</v>
+        <v>34.53696095765125</v>
       </c>
       <c r="H9">
-        <v>15.75905375775571</v>
+        <v>10.54510099308212</v>
       </c>
       <c r="I9">
-        <v>21.90758780399759</v>
+        <v>14.06639773372824</v>
       </c>
       <c r="J9">
-        <v>10.94604424025024</v>
+        <v>6.399244367964942</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.34263306741808</v>
+        <v>18.0506194665024</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20550423568261</v>
+        <v>25.93840642316992</v>
       </c>
       <c r="C10">
-        <v>11.63153617743696</v>
+        <v>20.14851860097881</v>
       </c>
       <c r="D10">
-        <v>9.912934839443523</v>
+        <v>6.994696277500198</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.95114543164254</v>
+        <v>29.06956633368516</v>
       </c>
       <c r="G10">
-        <v>36.23214369188554</v>
+        <v>36.92136805544655</v>
       </c>
       <c r="H10">
-        <v>15.69624003525115</v>
+        <v>10.76396043161643</v>
       </c>
       <c r="I10">
-        <v>21.73456576966748</v>
+        <v>14.04555527636457</v>
       </c>
       <c r="J10">
-        <v>10.90330435764936</v>
+        <v>6.394060156000138</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.68005868544091</v>
+        <v>19.70459136901108</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.6086750777298</v>
+        <v>26.87035478073588</v>
       </c>
       <c r="C11">
-        <v>11.97769883935496</v>
+        <v>20.88052680014173</v>
       </c>
       <c r="D11">
-        <v>9.928388647657741</v>
+        <v>7.131653628903649</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.98388615644146</v>
+        <v>29.75939863281227</v>
       </c>
       <c r="G11">
-        <v>36.35326631209539</v>
+        <v>38.03304649189086</v>
       </c>
       <c r="H11">
-        <v>15.67186555407122</v>
+        <v>10.87972902281404</v>
       </c>
       <c r="I11">
-        <v>21.66262926390459</v>
+        <v>14.07022495580282</v>
       </c>
       <c r="J11">
-        <v>10.88549102353593</v>
+        <v>6.396970397841588</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.83452314942635</v>
+        <v>20.42134439556876</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.7589734285528</v>
+        <v>27.21649349347853</v>
       </c>
       <c r="C12">
-        <v>12.10627484857927</v>
+        <v>21.15259656020908</v>
       </c>
       <c r="D12">
-        <v>9.93439138915863</v>
+        <v>7.183321644137177</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.99798155345935</v>
+        <v>30.02432213665816</v>
       </c>
       <c r="G12">
-        <v>36.401477841032</v>
+        <v>38.45782342538481</v>
       </c>
       <c r="H12">
-        <v>15.66324271405983</v>
+        <v>10.92602146304452</v>
       </c>
       <c r="I12">
-        <v>21.63636994701476</v>
+        <v>14.08492169764859</v>
       </c>
       <c r="J12">
-        <v>10.8789798999627</v>
+        <v>6.398879710989186</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.89310847369052</v>
+        <v>20.6877519491735</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.72671114229334</v>
+        <v>27.1422451719081</v>
       </c>
       <c r="C13">
-        <v>12.07869603025356</v>
+        <v>21.09422742532774</v>
       </c>
       <c r="D13">
-        <v>9.933091930277882</v>
+        <v>7.172203012772139</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.99487040327732</v>
+        <v>29.96710135564009</v>
       </c>
       <c r="G13">
-        <v>36.390990752165</v>
+        <v>38.36617115510862</v>
       </c>
       <c r="H13">
-        <v>15.66507273827037</v>
+        <v>10.9159405025747</v>
       </c>
       <c r="I13">
-        <v>21.6419815866115</v>
+        <v>14.08151122255947</v>
       </c>
       <c r="J13">
-        <v>10.88037176011217</v>
+        <v>6.398431778918814</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.88048767133622</v>
+        <v>20.63059727208604</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.62108835904571</v>
+        <v>26.89896669364219</v>
       </c>
       <c r="C14">
-        <v>11.98832741417196</v>
+        <v>20.90301214988701</v>
       </c>
       <c r="D14">
-        <v>9.92887949131581</v>
+        <v>7.135908414064003</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.98501178875232</v>
+        <v>29.78111983450516</v>
       </c>
       <c r="G14">
-        <v>36.35718585620295</v>
+        <v>38.06791699254143</v>
       </c>
       <c r="H14">
-        <v>15.6711439592455</v>
+        <v>10.8834876621663</v>
       </c>
       <c r="I14">
-        <v>21.66044917973765</v>
+        <v>14.07132418898355</v>
       </c>
       <c r="J14">
-        <v>10.88495065110855</v>
+        <v>6.397111003876428</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.83934139886363</v>
+        <v>20.44336165013674</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.55607923949176</v>
+        <v>26.74907412264806</v>
       </c>
       <c r="C15">
-        <v>11.93264591369047</v>
+        <v>20.7852234661463</v>
       </c>
       <c r="D15">
-        <v>9.926318800628801</v>
+        <v>7.113650915077324</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.97919407963606</v>
+        <v>29.66768287620141</v>
       </c>
       <c r="G15">
-        <v>36.33678400074253</v>
+        <v>37.88572267474096</v>
       </c>
       <c r="H15">
-        <v>15.6749419347284</v>
+        <v>10.86393248138935</v>
       </c>
       <c r="I15">
-        <v>21.67188915946642</v>
+        <v>14.06579494601785</v>
       </c>
       <c r="J15">
-        <v>10.88778588319617</v>
+        <v>6.396408647551384</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.81414886424913</v>
+        <v>20.32802536475551</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17882952267372</v>
+        <v>25.87654650638442</v>
       </c>
       <c r="C16">
-        <v>11.60856540694052</v>
+        <v>20.09995609181102</v>
       </c>
       <c r="D16">
-        <v>9.911946130571831</v>
+        <v>6.985719769289483</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.94924331542626</v>
+        <v>29.02500136094987</v>
       </c>
       <c r="G16">
-        <v>36.22455756489332</v>
+        <v>36.84925265769367</v>
       </c>
       <c r="H16">
-        <v>15.69791776309273</v>
+        <v>10.75673135367596</v>
       </c>
       <c r="I16">
-        <v>21.73940391428858</v>
+        <v>14.04466810863939</v>
       </c>
       <c r="J16">
-        <v>10.90450129547423</v>
+        <v>6.393980157056153</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.66997958790981</v>
+        <v>19.65704217647132</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.94328350360599</v>
+        <v>25.32907404123975</v>
       </c>
       <c r="C17">
-        <v>11.40534078898014</v>
+        <v>19.67030539425632</v>
       </c>
       <c r="D17">
-        <v>9.903400204151373</v>
+        <v>6.906916146140462</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.93389348531238</v>
+        <v>28.63732080731448</v>
       </c>
       <c r="G17">
-        <v>36.15991323984422</v>
+        <v>36.22025304933227</v>
       </c>
       <c r="H17">
-        <v>15.71309077137836</v>
+        <v>10.69520606458511</v>
       </c>
       <c r="I17">
-        <v>21.78256195038962</v>
+        <v>14.04076865769626</v>
       </c>
       <c r="J17">
-        <v>10.9151730319026</v>
+        <v>6.393874140757458</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.58175132061671</v>
+        <v>19.23636462737571</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.80632730432712</v>
+        <v>25.00965437666952</v>
       </c>
       <c r="C18">
-        <v>11.28684848471406</v>
+        <v>19.41974005562091</v>
       </c>
       <c r="D18">
-        <v>9.89858531459849</v>
+        <v>6.861480318209902</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.9261759720576</v>
+        <v>28.41675939684816</v>
       </c>
       <c r="G18">
-        <v>36.12428314628676</v>
+        <v>35.86101096478861</v>
       </c>
       <c r="H18">
-        <v>15.72221300006978</v>
+        <v>10.6613367598756</v>
       </c>
       <c r="I18">
-        <v>21.80802226918811</v>
+        <v>14.04171324822352</v>
       </c>
       <c r="J18">
-        <v>10.92146447850872</v>
+        <v>6.39430591738875</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.5310986019252</v>
+        <v>18.99103939713965</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.7597063324805</v>
+        <v>24.90072274101122</v>
       </c>
       <c r="C19">
-        <v>11.24645561077774</v>
+        <v>19.33430832369227</v>
       </c>
       <c r="D19">
-        <v>9.896972413461617</v>
+        <v>6.846078466728819</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.92375379683025</v>
+        <v>28.34249763101554</v>
       </c>
       <c r="G19">
-        <v>36.11248650369208</v>
+        <v>35.73981770365578</v>
       </c>
       <c r="H19">
-        <v>15.72536938772716</v>
+        <v>10.65012622095987</v>
       </c>
       <c r="I19">
-        <v>21.81675186166651</v>
+        <v>14.04256707009653</v>
       </c>
       <c r="J19">
-        <v>10.92362098807695</v>
+        <v>6.394535276944071</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.51396599349497</v>
+        <v>18.90739559655318</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.96851142306416</v>
+        <v>25.38782110534726</v>
       </c>
       <c r="C20">
-        <v>11.42714072665158</v>
+        <v>19.71639779800087</v>
       </c>
       <c r="D20">
-        <v>9.904299549391313</v>
+        <v>6.915316514822151</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.93541248070952</v>
+        <v>28.67833948578812</v>
       </c>
       <c r="G20">
-        <v>36.16663430005913</v>
+        <v>36.28694881574616</v>
       </c>
       <c r="H20">
-        <v>15.71143466114771</v>
+        <v>10.70159749343227</v>
       </c>
       <c r="I20">
-        <v>21.77790172568553</v>
+        <v>14.04085066987176</v>
       </c>
       <c r="J20">
-        <v>10.91402113575952</v>
+        <v>6.39383407818951</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.59113399329171</v>
+        <v>19.28149368606348</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.65217754947883</v>
+        <v>26.9706060911314</v>
       </c>
       <c r="C21">
-        <v>12.01493933000963</v>
+        <v>20.95931481963758</v>
       </c>
       <c r="D21">
-        <v>9.930112717341361</v>
+        <v>7.146574474538976</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.98786145512413</v>
+        <v>29.83564661279251</v>
       </c>
       <c r="G21">
-        <v>36.36705173959726</v>
+        <v>38.15541835050357</v>
       </c>
       <c r="H21">
-        <v>15.66934418828712</v>
+        <v>10.89295229265721</v>
       </c>
       <c r="I21">
-        <v>21.65499810160055</v>
+        <v>14.07416748027211</v>
       </c>
       <c r="J21">
-        <v>10.88359935737831</v>
+        <v>6.397476627388624</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.8514248989727</v>
+        <v>20.49849233728045</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.08511696910556</v>
+        <v>27.96565721299276</v>
       </c>
       <c r="C22">
-        <v>12.38446112241091</v>
+        <v>21.74181843489854</v>
       </c>
       <c r="D22">
-        <v>9.947860350796907</v>
+        <v>7.296572042208051</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.03203072633508</v>
+        <v>30.61359450094876</v>
       </c>
       <c r="G22">
-        <v>36.51169026106578</v>
+        <v>39.39878755032193</v>
       </c>
       <c r="H22">
-        <v>15.6453765576354</v>
+        <v>11.03237026954427</v>
       </c>
       <c r="I22">
-        <v>21.58039787611975</v>
+        <v>14.12736208876175</v>
       </c>
       <c r="J22">
-        <v>10.8650832793675</v>
+        <v>6.404587936699227</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.02206095210112</v>
+        <v>21.26472154997466</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.8553509920908</v>
+        <v>27.43813680949148</v>
       </c>
       <c r="C23">
-        <v>12.18859543082521</v>
+        <v>21.32686726738998</v>
       </c>
       <c r="D23">
-        <v>9.938308717386843</v>
+        <v>7.216626891472208</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.00755242780274</v>
+        <v>30.19640781377031</v>
       </c>
       <c r="G23">
-        <v>36.43325356080074</v>
+        <v>38.73315091937205</v>
       </c>
       <c r="H23">
-        <v>15.65784348265322</v>
+        <v>10.95660637636336</v>
       </c>
       <c r="I23">
-        <v>21.61968708990182</v>
+        <v>14.09594867517005</v>
       </c>
       <c r="J23">
-        <v>10.87484060298684</v>
+        <v>6.400342410634738</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.93095675817493</v>
+        <v>20.85839756473355</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.95711066163492</v>
+        <v>25.36127611513007</v>
       </c>
       <c r="C24">
-        <v>11.41729012792304</v>
+        <v>19.69557049938018</v>
       </c>
       <c r="D24">
-        <v>9.903892649104415</v>
+        <v>6.911519112902539</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.93472229357</v>
+        <v>28.65978771022935</v>
       </c>
       <c r="G24">
-        <v>36.16359092617334</v>
+        <v>36.25678824569281</v>
       </c>
       <c r="H24">
-        <v>15.71218214569582</v>
+        <v>10.69870325809399</v>
       </c>
       <c r="I24">
-        <v>21.78000659466381</v>
+        <v>14.04080370074635</v>
       </c>
       <c r="J24">
-        <v>10.9145414216889</v>
+        <v>6.393850659462025</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.5868918626265</v>
+        <v>19.26110166202677</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.93236260428664</v>
+        <v>22.94746434924706</v>
       </c>
       <c r="C25">
-        <v>10.52436391283673</v>
+        <v>17.80396016872445</v>
       </c>
       <c r="D25">
-        <v>9.870620875216634</v>
+        <v>6.578348660467344</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.89863119153377</v>
+        <v>27.09510301014137</v>
       </c>
       <c r="G25">
-        <v>35.93207680214131</v>
+        <v>33.68366335386676</v>
       </c>
       <c r="H25">
-        <v>15.78588635569415</v>
+        <v>10.47804750829213</v>
       </c>
       <c r="I25">
-        <v>21.97725912591411</v>
+        <v>14.10144215511916</v>
       </c>
       <c r="J25">
-        <v>10.9632274972867</v>
+        <v>6.405511427630328</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.21953807310407</v>
+        <v>17.40920202961761</v>
       </c>
       <c r="N25">
         <v>0</v>
